--- a/_site/Data/RemoteLearningModule.xlsx
+++ b/_site/Data/RemoteLearningModule.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25019"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF23D7D-9AAE-3542-A094-D89E5C2A34E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8766F48C-A410-DE45-992C-C83CDD209F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41180" yWindow="-3500" windowWidth="24160" windowHeight="15620" xr2:uid="{923D818C-8046-D64A-B4CD-453618303931}"/>
+    <workbookView xWindow="9780" yWindow="500" windowWidth="19020" windowHeight="16300" xr2:uid="{923D818C-8046-D64A-B4CD-453618303931}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="124">
   <si>
     <t>Question</t>
   </si>
@@ -36,7 +45,10 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t>Dates Used</t>
   </si>
   <si>
     <t>Are there any pre-school/school-aged children in your household who are currently learning remotely?</t>
@@ -48,76 +60,16 @@
     <t>Developed by RAPID Team</t>
   </si>
   <si>
-    <t>Educare Learning Network Parent Interview Fall 2020</t>
-  </si>
-  <si>
-    <t>• Always available
-• Usually available
-• Sometimes available
-• Rarely available
-• Never available</t>
-  </si>
-  <si>
-    <t>•	Always available
-•	Usually available
-•	Sometimes available
-•	Rarely available
-•	Never available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What kind of virtual learning activities does your child’s preschool/school use? Select all that apply. </t>
-  </si>
-  <si>
-    <t>•	Individual calls with children/families  
-•	Sending schedules and resources  
-•	Large group video meetings (e.g., morning meeting
-•	Recording videos (e.g., story time)  
-•	Sending materials to families                    •	Small group video meetings (e.g., small group projects
-•	None of the above</t>
-  </si>
-  <si>
-    <t>What are the challenges of remote instruction with young children and families? Select all that apply</t>
-  </si>
-  <si>
-    <t>How do you believe teacher-child interaction quality has changed since adopting remote learning?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•	Declined                                                                    •	About the same                                                         •	Improved </t>
-  </si>
-  <si>
-    <t>How do you believe child-child (i.e., peers) interaction quality has changed since adopting remote learning?</t>
-  </si>
-  <si>
-    <t>How much total time per day is your child on a virtual learning platform?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•	Less than 30 minutes                                                                  •	31-60 minutes                                                        •	61-120 minutes                                                      •	121-180 minutes                                                                  •	more than 180 minutes                                                       •	Other </t>
-  </si>
-  <si>
-    <t>https://www.ajqr.org/download/parents-experiences-with-remote-education-during-covid-19-school-closures-8471.pdf (modified question to be applicable for teachers)</t>
-  </si>
-  <si>
-    <t>How much time does an individual remote learning session last?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•	Less than 30 minutes                                                                  •	31-60 minutes                                                        •	61-120 minutes                                                      •	121-180 minutes                                                                  •	more than 180 minutes                                                       </t>
-  </si>
-  <si>
-    <t>To what extent do you think screen time helps with your child’s learning?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•	Very effective                                                               •	Somewhat effective                                                  •	A mixture                                                     •	Somewhat ineffective                                                         •	Very ineffective   </t>
-  </si>
-  <si>
-    <t>•	Engaging children through remote instruction    
-•		Developing an engaging distance curriculum  
-•	Access to computers and technology for children and families
-•	Access to computer and technology for  staff 
-•	Managing own children’s remote instruction                                       •	Caring for own family members  
-•		Attendance during remote instruction                                                             	•Other, please describe                            •		None of the above                                                        	•Not applicable (e.g. older school-aged child)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            </t>
+    <t>11/17/2020-11/19/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following best describes your child(ren)? Select all that apply. </t>
+  </si>
+  <si>
+    <t>•	Pre-school/Pre-K                                                           •	K-12                                                                 •	None of the above</t>
+  </si>
+  <si>
+    <t>12/15/2020-12/17/2020 01/05/2021-01/07/2021</t>
   </si>
   <si>
     <t>[Display this question if "Which of the following best describes your child(ren)? Select all that apply" = Pre-school/Pre-K]                                                                         Are there any pre-school/pre-K children in your household who are currently learning remotely?</t>
@@ -147,7 +99,57 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question if "Are there any pre-school/pre-K children in your household who are currently learning remotely?" = Yes OR if "Are there any K-12 children in your household who are currently learning remotely?" = Yes]
+During the COVID-19 pandemic, who in your family has access to a computer, laptop, tablet, or other similar device? Select all that apply. </t>
+  </si>
+  <si>
     <t xml:space="preserve">•	Me/Spouse/Partner                                                                       •	Older children (K-12 children)                                                                •	Younger children (children in pre-school/pre-K)                                                         •	No one has access                                                                                              </t>
+  </si>
+  <si>
+    <t>Educare Learning Network Parent Interview Fall 2020</t>
+  </si>
+  <si>
+    <t>11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021</t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any pre-school/pre-K children in your household who are currently learning remotely?" = Yes OR if "Are there any K-12 children in your household who are currently learning remotely?" = Yes]
+How often is the internet available to you (the caregiver)? Select only one answer.</t>
+  </si>
+  <si>
+    <t>•	Always available
+•	Usually available
+•	Sometimes available
+•	Rarely available
+•	Never available</t>
+  </si>
+  <si>
+    <t>Census Pulse Survey</t>
+  </si>
+  <si>
+    <t>https://www2.census.gov/programs-surveys/demo/technical-documentation/hhp/Phase_2_Questionnaire_09_09_2020_English.pdf</t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any pre-school/pre-K children in your household who are currently learning remotely?" = Yes]
+How often is the internet available to Pre-school/Pre-K child(ren) for educational purposes? Select only one answer.</t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any pre-school/pre-K children in your household who are currently learning remotely?" = Yes OR if "Are there any K-12 children in your household who are currently learning remotely?" = Yes].
+How often is the internet available to children for educational purposes? Select only one answer.</t>
+  </si>
+  <si>
+    <t>• Always available
+• Usually available
+• Sometimes available
+• Rarely available
+• Never available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question if "Are there any pre-school/pre-K children in your household who are currently learning remotely?" = Yes]                                                                    How often are/do your child(ren) in Pre-school/Pre-K…            •	Unable to complete homework due to a lack of a reliable computer or internet connection? 
+•	Use public wi-fi to do homework because of no (or insufficient) home internet connection? 
+•Use public wi-fi to attend their remote learning sessions because of no (or insufficient) home internet connection? </t>
   </si>
   <si>
     <t>•	Never
@@ -157,11 +159,6 @@
 •	Always</t>
   </si>
   <si>
-    <t xml:space="preserve">[Display this question if "Are there any pre-school/pre-K children in your household who are currently learning remotely?" = Yes]                                                                    How often are/do your child(ren) in Pre-school/Pre-K…            •	Unable to complete homework due to a lack of a reliable computer or internet connection? 
-•	Use public wi-fi to do homework because of no (or insufficient) home internet connection? 
-•Use public wi-fi to attend their remote learning sessions because of no (or insufficient) home internet connection? </t>
-  </si>
-  <si>
     <t>[Display this question if "Are there any pre-school/pre-K children in your household who are currently learning remotely?" = Yes]                                                                What type of device(s) does your child in Pre-school/Pre-K use for remote learning? Select all that apply:</t>
   </si>
   <si>
@@ -172,84 +169,76 @@
 •	Other, please specify</t>
   </si>
   <si>
-    <t>Open ended</t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]              If you could tell your school district superintendent or school board members about your child’s experiences with remote learning so far, what would you tell them?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]              Do you think your K-12 child(ren) is on track academically, when compared to their peers? </t>
-  </si>
-  <si>
-    <t>•	Strongly agree
-•	Somewhat agree
-•	Neither agree nor disagree
-•	Somewhat disagree
-•	Strongly disagree</t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]             Do you think your K-12 child(ren) is on track developmentally, when compared to their peers?</t>
-  </si>
-  <si>
-    <t>•	Enjoy remote learning less than in-person
-•	No difference
-•	Enjoy remote learning more than in-person</t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]   Compared to in-person learning, how much do your K-12 child(ren) enjoy school through remote learning?</t>
-  </si>
-  <si>
-    <t>•	Declined
-•	About the same
-•	Improved</t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]            How do you believe the quality of child-child (i.e., peers) interactions have changed for your K-12 child(ren) since adopting remote learning?</t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]          How do you believe teacher-child interaction quality has changed for your K-12 child(ren) since adopting remote learning?</t>
-  </si>
-  <si>
-    <t>•	Very effective
-•	Somewhat effective
-•	A mixture
-•	Somewhat ineffective
-•	Very ineffective</t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]             To what extent do you think screen time helps with your K-12 child(ren)’s learning?</t>
-  </si>
-  <si>
-    <t>•	More motivated
-•	No change
-•Less motivated</t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]      Compared to before the pandemic, what is your K-12 child(ren)’s level of motivation about seeing friends and classmates in school?</t>
-  </si>
-  <si>
-    <t>•	More engaged
-•	No change
-•Less engaged</t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]  Compared to before the pandemic, how engaged is your K-12 child(ren) with the material that they are learning in school?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•	I spent less time helping my child(ren)'s school work 
-•	Same amount of time
-•I spent more time helping my child(ren)'s school work </t>
-  </si>
-  <si>
-    <t>•	Less homework
-•	Same amount of homework
-•More homework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes] Compared to before the pandemic, how has the amount of school work that your K-12 child(ren) needs to complete outside of class time changed with remote learning?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question if "Compared to before the pandemic, how has the amount of school work that your K-12 child(ren) needs to complete outside of class time changed with remote learning?" = Less homework OR more homework]                                                                     How did these changes affect the time you spent helping your K-12 child(ren)’s school work? </t>
+    <t xml:space="preserve">[Display this question if "Are there any pre-school/pre-k children in your household who are currently learning remotely?" = Yes]                                                                                           For child(ren) in Pre-school/Pre-K, is the...                                                 •[Display this question if "What type of device(s) does your child in Pre-school/Pre-K use for remote learning? Select all that apply:" = A tablet] ${R3.RL.021.a/ChoiceDescription/1} 
+•	[Display this question if "What type of device(s) does your child in Pre-school/Pre-K  use for remote learning? Select all that apply:" = Smart phone] ${R3.RL.021.a/ChoiceDescription/2} 
+•	[Display this question if "What type of device(s) does your child in Pre-school/Pre-K use for remote learning? Select all that apply:" = Laptop computer] ${R3.RL.021.a/ChoiceDescription/3} 
+•[Display this question if "What type of device(s) does your child in Pre-school/Pre-K use for remote learning? Select all that apply:" = Desktop computer] 	${R3.RL.021.a/ChoiceDescription/4} 
+•	[Display this question if "What type of device(s) does your child in Pre-school/Pre-K use for remote learning? Select all that apply:" = Other, please specify] ${R3.RL.021.a/ChoiceDescription/5} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Provided by the children’s school or school district to use outside of school 
+•Provided by someone in the household or family, or it is the child’s 
+•	Provided by another source </t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any Pre-school/Pre-K children in your household who are learning remotely?" = Yes]                                                                                           How much time does an individual remote learning session last for your pre-school/pre-k child(ren)?</t>
+  </si>
+  <si>
+    <t>• Less than 30 minutes
+• 31-60 minutes
+• 61-120 minutes
+•121-180 minutes
+• More than 180 minutes                                            • Other</t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any Pre-school/Pre-K children in your household who are learning remotely?" = Yes]                                                                                             How much total time per day are your pre-school/pre-k child(ren) on a virtual learning platform?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question if "Are there any Pre-school/Pre-K children in your household who are learning remotely?" = Yes]                                                                                      What kind of virtual learning activities does your child's Pre-school/Pre-K use? Select all that apply. </t>
+  </si>
+  <si>
+    <t>•		Individual calls with children/families  
+•			Sending schedules and resources  
+•		Large group video meetings (e.g., morning meeting)  
+•				Recording videos (e.g., story time)  
+•			Sending materials to families                           •				Small group video meetings (e.g., small group projects) 
+•	None of the above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question if "Are there any Pre-school/Pre-K  children in your household who are learning remotely?" = Yes]                                                                                      Do your Pre-school/Pre-K child(ren) participate in any of the following as supplements to their remote learning? Select all that apply. </t>
+  </si>
+  <si>
+    <t>•	Remote tutoring
+•		In-person tutoring
+•	Learning pods or other small group led by an unpaid adult  
+•			Learning pod or other small group by a paid adult  
+•		Online learning app or platform                                     •			A book subscription or reading club  
+•			Remote extracurricular (e.g., sport, music lesson)                                                   •			In-person extracurriculars (e.g., sport, music lesson)                           •		Other 
+•	None of the above</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Display this question if "Are there any Pre-school/Pre-K  children in your household who are learning remotely?" = Yes]                                                                                     What are the challenges you and your family are experiencing with remote instruction for your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Pre-school/Pre-K </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> child(ren)? Select all that apply.</t>
+    </r>
   </si>
   <si>
     <t>•	Distractions at home  
@@ -258,6 +247,160 @@
 •		Managing schoolwork and other parental responsibilities  
 •	Issues with accessing remote material                                                   •		Other, Please describe:  
 •		None of the above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question if "Are there any Pre-school/Pre-K  children in your household who are learning remotely?" = Yes]                                                                              Compared to before the pandemic, how has the amount of school work that your Pre-school/Pre-K  child(ren) needs to complete outside of class time changed with remote learning?  </t>
+  </si>
+  <si>
+    <t>•	Less homework
+•	Same amount of homework
+•More homework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question if "Compared to before the pandemic, how has the amount of school work that your Pre-school/Pre-K child(ren) needs to complete outside of class time changed with remote learning?" = Less homework OR more homework]                                                                     How did these changes affect the time you spent helping your pre-school/pre-K child(ren)’s school work? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	I spent less time helping my child(ren)'s school work 
+•	Same amount of time
+•I spent more time helping my child(ren)'s school work </t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any Pre-school/Pre-K children in your household who are learning remotely?" = Yes]                                                                                 Compared to before the pandemic, how engaged is your pre-school/pre-K child(ren) with the material that they are learning in school?</t>
+  </si>
+  <si>
+    <t>•	More engaged
+•	No change
+•Less engaged</t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any Pre-school/Pre-K children in your household who are learning remotely?" = Yes]                                                                                          Compared to before the pandemic, what is your K-12 child(ren)’s level of motivation about seeing friends and classmates in school?</t>
+  </si>
+  <si>
+    <t>•	More motivated
+•	No change
+•Less motivated</t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any Pre-school/Pre-K children in your household who are learning remotely?" = Yes]                                                                                         To what extent do you think screen time helps with your pre-school/Pre-K child(ren)’s learning?</t>
+  </si>
+  <si>
+    <t>•	Very effective
+•	Somewhat effective
+•	A mixture
+•	Somewhat ineffective
+•	Very ineffective</t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any Pre-school/Pre-K children in your household who are learning remotely?" = Yes]                                                                                         How do you believe teacher-child interaction quality has changed for your Pre-school/Pre-K child(ren) since adopting remote learning?</t>
+  </si>
+  <si>
+    <t>•	Declined
+•	About the same
+•	Improved</t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any Pre-school/Pre-K  children in your household who are learning remotely?" = Yes]                                                                                      How do you believe the quality of child-child (i.e., peers) interactions have changed for your Pre-school/Pre-K  child(ren) since adopting remote learning?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any Pre-school/Pre-K children in your household who are learning remotely?" = Yes]                                                                                 Compared to in-person learning, how much do your Pre-school/Pre-K child(ren) enjoy school through remote learning?</t>
+  </si>
+  <si>
+    <t>•	Enjoy remote learning less than in-person
+•	No difference
+•	Enjoy remote learning more than in-person</t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any pre-school/pre-K children in your household who are learning remotely?" = Yes]                                                                                              Do you think your Pre-school/Pre-K child(ren) is on track developmentally, when compared to their peers?</t>
+  </si>
+  <si>
+    <t>•	Strongly agree
+•	Somewhat agree
+•	Neither agree nor disagree
+•	Somewhat disagree
+•	Strongly disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question if "Are there any pre-school/pre-K children in your household who are learning remotely?" = Yes]                                                                                              Do you think your Pre-school/Pre-K child(ren) is on track academically, when compared to their peers? </t>
+  </si>
+  <si>
+    <r>
+      <t>[Display this question if "Are there any pre-school/pre-K children in your household who are currently learning remotely?" = Yes]                                                                     If you could tell your elected officials or policymakers how things are going with your</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> preschool-aged</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> child’s learning during the pandemic, what would you tell them? </t>
+    </r>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any pre-school/pre-K children in your household who are currently learning remotely?" = Yes]                                                                   Has anything changed recently in your remote learning arrangement for your preschool-aged child(ren)?</t>
+  </si>
+  <si>
+    <t>Open Ended</t>
+  </si>
+  <si>
+    <t>RAPID Team Developed</t>
+  </si>
+  <si>
+    <t>01/05/2021-01/07/2021</t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]                                                                How often is the internet available to child(ren) in K-12 for educational purposes? Select only one answer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question if "Are there any K-12 children in your household who are currently learning remotely?" = Yes]                                                                                       How often are/do your child(ren) in K-12...                             • Unable to complete homework due to a lack of a reliable computer or internet connection? 
+• Use public wi-fi to do homework because of no (or insufficient) home internet connection? 
+•Use public wi-fi to attend their remote learning sessions because of no (or insufficient) home internet connection? </t>
+  </si>
+  <si>
+    <t>• Never
+• Rarely
+• Sometimes
+• Usually
+• Always</t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any K-12 children in your household who are currently learning remotely?" = Yes]                                                                                            What type of device(s) does your child in K-12 use for remote learning? Select all that apply:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question if "Are there any K-12 children in your household who are currently learning remotely?" = Yes]                                                                                           For child(ren) in K-12, is the…                                                 •[Display this question if "What type of device(s) does your child in K-12 use for remote learning? Select all that apply: = A tablet] ${R3.RL.021.b/ChoiceDescription/1} 
+•	[Display this question if "What type of device(s) does your child in K-12 use for remote learning? Select all that apply: = Smart phone] ${R3.RL.021.b/ChoiceDescription/2} 
+•	[Display this question if "What type of device(s) does your child in K-12 use for remote learning? Select all that apply: = Laptop computer] ${R3.RL.021.b/ChoiceDescription/3} 
+•[Display this question if "What type of device(s) does your child in K-12 use for remote learning? Select all that apply: = Desktop computer] 	${R3.RL.021.b/ChoiceDescription/4} 
+•	[Display this question if "What type of device(s) does your child in K-12 use for remote learning? Select all that apply: = Other, please specify] ${R3.RL.021.b/ChoiceDescription/5} </t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]           How much time does an individual remote learning session last for your K-12 child(ren)?</t>
+  </si>
+  <si>
+    <t>•	Less than 1 hour
+•	1-2 hours
+•	3-4 hours
+•	5-6 hours
+•	7-8 hours                                           •	More than 8 hours</t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]            How much total time per day are your K-12 child(ren) on a virtual learning platform?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]          What kind of virtual learning activities does your child’s K-12 school use? Select all that apply. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]              Do your K-12 child(ren) participate in any of the following as supplements to their remote learning? Select all that apply. </t>
   </si>
   <si>
     <r>
@@ -284,236 +427,108 @@
     </r>
   </si>
   <si>
-    <t>•	Remote tutoring
-•		In-person tutoring
-•	Learning pods or other small group led by an unpaid adult  
-•			Learning pod or other small group by a paid adult  
-•		Online learning app or platform                                     •			A book subscription or reading club  
-•			Remote extracurricular (e.g., sport, music lesson)                                                   •			In-person extracurriculars (e.g., sport, music lesson)                           •		Other 
+    <t xml:space="preserve">[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes] Compared to before the pandemic, how has the amount of school work that your K-12 child(ren) needs to complete outside of class time changed with remote learning?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question if "Compared to before the pandemic, how has the amount of school work that your K-12 child(ren) needs to complete outside of class time changed with remote learning?" = Less homework OR more homework]                                                                     How did these changes affect the time you spent helping your K-12 child(ren)’s school work? </t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]  Compared to before the pandemic, how engaged is your K-12 child(ren) with the material that they are learning in school?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]      Compared to before the pandemic, what is your K-12 child(ren)’s level of motivation about seeing friends and classmates in school?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]             To what extent do you think screen time helps with your K-12 child(ren)’s learning?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]          How do you believe teacher-child interaction quality has changed for your K-12 child(ren) since adopting remote learning?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]            How do you believe the quality of child-child (i.e., peers) interactions have changed for your K-12 child(ren) since adopting remote learning?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]   Compared to in-person learning, how much do your K-12 child(ren) enjoy school through remote learning?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]             Do you think your K-12 child(ren) is on track developmentally, when compared to their peers?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]              Do you think your K-12 child(ren) is on track academically, when compared to their peers? </t>
+  </si>
+  <si>
+    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]              If you could tell your school district superintendent or school board members about your child’s experiences with remote learning so far, what would you tell them?</t>
+  </si>
+  <si>
+    <t>Open ended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]                     Has anything changed recently in your remote learning arrangement for your school-aged child/ren? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What kind of virtual learning activities does your child’s preschool/school use? Select all that apply. </t>
+  </si>
+  <si>
+    <t>•	Individual calls with children/families  
+•	Sending schedules and resources  
+•	Large group video meetings (e.g., morning meeting
+•	Recording videos (e.g., story time)  
+•	Sending materials to families                    •	Small group video meetings (e.g., small group projects
 •	None of the above</t>
   </si>
   <si>
-    <t xml:space="preserve">[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]              Do your K-12 child(ren) participate in any of the following as supplements to their remote learning? Select all that apply. </t>
-  </si>
-  <si>
-    <t>•	Less than 1 hour
-•	1-2 hours
-•	3-4 hours
-•	5-6 hours
-•	7-8 hours                                           •	More than 8 hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]          What kind of virtual learning activities does your child’s K-12 school use? Select all that apply. </t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]            How much total time per day are your K-12 child(ren) on a virtual learning platform?</t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]           How much time does an individual remote learning session last for your K-12 child(ren)?</t>
-  </si>
-  <si>
-    <t>•		Individual calls with children/families  
-•			Sending schedules and resources  
-•		Large group video meetings (e.g., morning meeting)  
-•				Recording videos (e.g., story time)  
-•			Sending materials to families                           •				Small group video meetings (e.g., small group projects) 
-•	None of the above</t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]                                                                How often is the internet available to child(ren) in K-12 for educational purposes? Select only one answer.</t>
-  </si>
-  <si>
-    <t>• Never
-• Rarely
-• Sometimes
-• Usually
-• Always</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question if "Are there any K-12 children in your household who are currently learning remotely?" = Yes]                                                                                       How often are/do your child(ren) in K-12...                             • Unable to complete homework due to a lack of a reliable computer or internet connection? 
-• Use public wi-fi to do homework because of no (or insufficient) home internet connection? 
-•Use public wi-fi to attend their remote learning sessions because of no (or insufficient) home internet connection? </t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any K-12 children in your household who are currently learning remotely?" = Yes]                                                                                            What type of device(s) does your child in K-12 use for remote learning? Select all that apply:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Provided by the children’s school or school district to use outside of school 
-•Provided by someone in the household or family, or it is the child’s 
-•	Provided by another source </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question if "Are there any K-12 children in your household who are currently learning remotely?" = Yes]                                                                                           For child(ren) in K-12, is the…                                                 •[Display this question if "What type of device(s) does your child in K-12 use for remote learning? Select all that apply: = A tablet] ${R3.RL.021.b/ChoiceDescription/1} 
-•	[Display this question if "What type of device(s) does your child in K-12 use for remote learning? Select all that apply: = Smart phone] ${R3.RL.021.b/ChoiceDescription/2} 
-•	[Display this question if "What type of device(s) does your child in K-12 use for remote learning? Select all that apply: = Laptop computer] ${R3.RL.021.b/ChoiceDescription/3} 
-•[Display this question if "What type of device(s) does your child in K-12 use for remote learning? Select all that apply: = Desktop computer] 	${R3.RL.021.b/ChoiceDescription/4} 
-•	[Display this question if "What type of device(s) does your child in K-12 use for remote learning? Select all that apply: = Other, please specify] ${R3.RL.021.b/ChoiceDescription/5} </t>
-  </si>
-  <si>
-    <r>
-      <t>[Display this question if "Are there any pre-school/pre-K children in your household who are currently learning remotely?" = Yes]                                                                     If you could tell your elected officials or policymakers how things are going with your</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> preschool-aged</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> child’s learning during the pandemic, what would you tell them? </t>
-    </r>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any pre-school/pre-K children in your household who are learning remotely?" = Yes]                                                                                              Do you think your Pre-school/Pre-K child(ren) is on track developmentally, when compared to their peers?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question if "Are there any pre-school/pre-K children in your household who are learning remotely?" = Yes]                                                                                              Do you think your Pre-school/Pre-K child(ren) is on track academically, when compared to their peers? </t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any Pre-school/Pre-K children in your household who are learning remotely?" = Yes]                                                                                         How do you believe teacher-child interaction quality has changed for your Pre-school/Pre-K child(ren) since adopting remote learning?</t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any Pre-school/Pre-K  children in your household who are learning remotely?" = Yes]                                                                                      How do you believe the quality of child-child (i.e., peers) interactions have changed for your Pre-school/Pre-K  child(ren) since adopting remote learning?</t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any Pre-school/Pre-K children in your household who are learning remotely?" = Yes]                                                                                 Compared to in-person learning, how much do your Pre-school/Pre-K child(ren) enjoy school through remote learning?</t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any Pre-school/Pre-K children in your household who are learning remotely?" = Yes]                                                                                          Compared to before the pandemic, what is your K-12 child(ren)’s level of motivation about seeing friends and classmates in school?</t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any Pre-school/Pre-K children in your household who are learning remotely?" = Yes]                                                                                         To what extent do you think screen time helps with your pre-school/Pre-K child(ren)’s learning?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question if "Compared to before the pandemic, how has the amount of school work that your Pre-school/Pre-K child(ren) needs to complete outside of class time changed with remote learning?" = Less homework OR more homework]                                                                     How did these changes affect the time you spent helping your pre-school/pre-K child(ren)’s school work? </t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any Pre-school/Pre-K children in your household who are learning remotely?" = Yes]                                                                                 Compared to before the pandemic, how engaged is your pre-school/pre-K child(ren) with the material that they are learning in school?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question if "Are there any Pre-school/Pre-K  children in your household who are learning remotely?" = Yes]                                                                              Compared to before the pandemic, how has the amount of school work that your Pre-school/Pre-K  child(ren) needs to complete outside of class time changed with remote learning?  </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Display this question if "Are there any Pre-school/Pre-K  children in your household who are learning remotely?" = Yes]                                                                                     What are the challenges you and your family are experiencing with remote instruction for your </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Pre-school/Pre-K </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> child(ren)? Select all that apply.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question if "Are there any Pre-school/Pre-K  children in your household who are learning remotely?" = Yes]                                                                                      Do your Pre-school/Pre-K child(ren) participate in any of the following as supplements to their remote learning? Select all that apply. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question if "Are there any Pre-school/Pre-K children in your household who are learning remotely?" = Yes]                                                                                      What kind of virtual learning activities does your child's Pre-school/Pre-K use? Select all that apply. </t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any Pre-school/Pre-K children in your household who are learning remotely?" = Yes]                                                                                           How much time does an individual remote learning session last for your pre-school/pre-k child(ren)?</t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any Pre-school/Pre-K children in your household who are learning remotely?" = Yes]                                                                                             How much total time per day are your pre-school/pre-k child(ren) on a virtual learning platform?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question if "Are there any pre-school/pre-k children in your household who are currently learning remotely?" = Yes]                                                                                           For child(ren) in Pre-school/Pre-K, is the...                                                 •[Display this question if "What type of device(s) does your child in Pre-school/Pre-K use for remote learning? Select all that apply:" = A tablet] ${R3.RL.021.a/ChoiceDescription/1} 
-•	[Display this question if "What type of device(s) does your child in Pre-school/Pre-K  use for remote learning? Select all that apply:" = Smart phone] ${R3.RL.021.a/ChoiceDescription/2} 
-•	[Display this question if "What type of device(s) does your child in Pre-school/Pre-K use for remote learning? Select all that apply:" = Laptop computer] ${R3.RL.021.a/ChoiceDescription/3} 
-•[Display this question if "What type of device(s) does your child in Pre-school/Pre-K use for remote learning? Select all that apply:" = Desktop computer] 	${R3.RL.021.a/ChoiceDescription/4} 
-•	[Display this question if "What type of device(s) does your child in Pre-school/Pre-K use for remote learning? Select all that apply:" = Other, please specify] ${R3.RL.021.a/ChoiceDescription/5} </t>
-  </si>
-  <si>
-    <t>37, 39</t>
-  </si>
-  <si>
-    <t>33, 37, 39</t>
-  </si>
-  <si>
-    <t>• Less than 30 minutes
-• 31-60 minutes
-• 61-120 minutes
-•121-180 minutes
-• More than 180 minutes                                            • Other</t>
-  </si>
-  <si>
-    <t>Open Ended</t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any pre-school/pre-K children in your household who are currently learning remotely?" = Yes]                                                                   Has anything changed recently in your remote learning arrangement for your preschool-aged child(ren)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]                     Has anything changed recently in your remote learning arrangement for your school-aged child/ren? </t>
-  </si>
-  <si>
-    <t>RAPID Team Developed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question if "Are there any pre-school/pre-K children in your household who are currently learning remotely?" = Yes OR if "Are there any K-12 children in your household who are currently learning remotely?" = Yes]
-During the COVID-19 pandemic, who in your family has access to a computer, laptop, tablet, or other similar device? Select all that apply. </t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any pre-school/pre-K children in your household who are currently learning remotely?" = Yes OR if "Are there any K-12 children in your household who are currently learning remotely?" = Yes]
-How often is the internet available to you (the caregiver)? Select only one answer.</t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any pre-school/pre-K children in your household who are currently learning remotely?" = Yes]
-How often is the internet available to Pre-school/Pre-K child(ren) for educational purposes? Select only one answer.</t>
-  </si>
-  <si>
-    <t>[Display this question if "Are there any pre-school/pre-K children in your household who are currently learning remotely?" = Yes OR if "Are there any K-12 children in your household who are currently learning remotely?" = Yes].
-How often is the internet available to children for educational purposes? Select only one answer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which of the following best describes your child(ren)? Select all that apply. </t>
-  </si>
-  <si>
-    <t>•	Pre-school/Pre-K                                                           •	K-12                                                                 •	None of the above</t>
-  </si>
-  <si>
-    <t>Source Link</t>
-  </si>
-  <si>
-    <t>https://www2.census.gov/programs-surveys/demo/technical-documentation/hhp/Phase_2_Questionnaire_09_09_2020_English.pdf</t>
-  </si>
-  <si>
-    <t>Census Pulse Survey</t>
+    <t>New York Early Childhood Professional Development Institute’s New York City Early Childhood Research Network and Bank Street College</t>
   </si>
   <si>
     <t xml:space="preserve">
 https://educate.bankstreet.edu/cgi/viewcontent.cgi?article=1001&amp;context=sc</t>
   </si>
   <si>
-    <t>New York Early Childhood Professional Development Institute’s New York City Early Childhood Research Network and Bank Street College</t>
+    <t>What are the challenges of remote instruction with young children and families? Select all that apply</t>
+  </si>
+  <si>
+    <t>•	Engaging children through remote instruction    
+•		Developing an engaging distance curriculum  
+•	Access to computers and technology for children and families
+•	Access to computer and technology for  staff 
+•	Managing own children’s remote instruction                                       •	Caring for own family members  
+•		Attendance during remote instruction                                                             	•Other, please describe                            •		None of the above                                                        	•Not applicable (e.g. older school-aged child)</t>
+  </si>
+  <si>
+    <t>EdPolicyWorks report from the University of Virginia</t>
   </si>
   <si>
     <t xml:space="preserve"> https://files.elfsight.com/storage/022b8cb9-839c-4bc2-992e-cefccb8e877e/710c4e38-4f63-41d0-b6d8-a93d766a094c.pdf</t>
   </si>
   <si>
-    <t>EdPolicyWorks report from the University of Virginia</t>
+    <t>How do you believe teacher-child interaction quality has changed since adopting remote learning?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Declined                                                                    •	About the same                                                         •	Improved </t>
+  </si>
+  <si>
+    <t>How do you believe child-child (i.e., peers) interaction quality has changed since adopting remote learning?</t>
+  </si>
+  <si>
+    <t>How much total time per day is your child on a virtual learning platform?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Less than 30 minutes                                                                  •	31-60 minutes                                                        •	61-120 minutes                                                      •	121-180 minutes                                                                  •	more than 180 minutes                                                       •	Other </t>
+  </si>
+  <si>
+    <t>https://www.ajqr.org/download/parents-experiences-with-remote-education-during-covid-19-school-closures-8471.pdf (modified question to be applicable for teachers)</t>
+  </si>
+  <si>
+    <t>How much time does an individual remote learning session last?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Less than 30 minutes                                                                  •	31-60 minutes                                                        •	61-120 minutes                                                      •	121-180 minutes                                                                  •	more than 180 minutes                                                       </t>
+  </si>
+  <si>
+    <t>To what extent do you think screen time helps with your child’s learning?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Very effective                                                               •	Somewhat effective                                                  •	A mixture                                                     •	Somewhat ineffective                                                         •	Very ineffective   </t>
   </si>
   <si>
     <t xml:space="preserve">[Display this question if "Which of the following best describes your child(ren)? = Pre-school/Pre-K]                                               Overall, how has the coronavirus (COVID-19) pandemic affected how your child(ren) in Pre-school/Pre-K receive education for the 2020-2021 school year (since August/September 2020)? Select all that apply. </t>
@@ -585,7 +600,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -661,7 +676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -705,11 +720,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1029,18 +1047,19 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E70" sqref="E2:E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="48.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="5" customWidth="1"/>
-    <col min="3" max="5" width="18.1640625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="5"/>
+    <col min="3" max="4" width="18.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.100000000000001">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1051,945 +1070,945 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="31.5">
       <c r="A2" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="63">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="78.75">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="61" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="57">
       <c r="A5" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="135">
       <c r="A6" s="6" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="126">
       <c r="A7" s="8" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="110.25">
       <c r="A8" s="8" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="126">
       <c r="A9" s="9" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="8">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="187" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" ht="157.5">
       <c r="A10" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="94.5">
       <c r="A11" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="404" x14ac:dyDescent="0.2">
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="378">
       <c r="A12" s="8" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="94.5">
       <c r="A13" s="9" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="94.5">
       <c r="A14" s="9" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="187" x14ac:dyDescent="0.2">
+      <c r="E14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="157.5">
       <c r="A15" s="8" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="255" x14ac:dyDescent="0.2">
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="236.25">
       <c r="A16" s="8" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="157.5">
       <c r="A17" s="6" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="110.25">
       <c r="A18" s="8" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="126">
       <c r="A19" s="8" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="94.5">
       <c r="A20" s="8" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="94.5">
       <c r="A21" s="8" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="78.75">
       <c r="A22" s="8" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="94.5">
       <c r="A23" s="8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="94.5">
       <c r="A24" s="8" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="94.5">
       <c r="A25" s="8" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="78.75">
       <c r="A26" s="8" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="78.75">
       <c r="A27" s="8" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="91" x14ac:dyDescent="0.2">
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="85.5">
       <c r="A28" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="12" customFormat="1" ht="76" x14ac:dyDescent="0.2">
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="12" customFormat="1" ht="71.25">
       <c r="A29" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D29" s="11"/>
-      <c r="E29" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="E29" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="78.75">
       <c r="A30" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="187" x14ac:dyDescent="0.2">
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="157.5">
       <c r="A31" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="78.75">
       <c r="A32" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="404" x14ac:dyDescent="0.2">
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="378">
       <c r="A33" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="94.5">
       <c r="A34" s="8" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="94.5">
       <c r="A35" s="8" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="187" x14ac:dyDescent="0.2">
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="157.5">
       <c r="A36" s="8" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="255" x14ac:dyDescent="0.2">
+      <c r="E36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="236.25">
       <c r="A37" s="8" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+      <c r="E37" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="157.5">
       <c r="A38" s="6" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="E38" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="94.5">
       <c r="A39" s="8" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="110.25">
       <c r="A40" s="8" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="E40" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="78.75">
       <c r="A41" s="8" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="78.75">
       <c r="A42" s="8" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="78.75">
       <c r="A43" s="8" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="E43" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="78.75">
       <c r="A44" s="8" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="E44" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="78.75">
       <c r="A45" s="8" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="78.75">
       <c r="A46" s="8" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="78.75">
       <c r="A47" s="8" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="78.75">
+      <c r="A48" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="B48" s="8" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="E48" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="78.75">
       <c r="A49" s="8" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="12" customFormat="1" ht="61" x14ac:dyDescent="0.2">
+      <c r="E49" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="12" customFormat="1" ht="57">
       <c r="A50" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="157.5">
+      <c r="A51" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="170" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="D51" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="283.5">
+      <c r="A52" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="127.5">
+      <c r="A53" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="127.5">
+      <c r="A54" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="189">
+      <c r="A55" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="E51" s="8">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="289" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E52" s="8">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="99" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E53" s="13">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="99" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="13">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="170" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="15">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="189">
       <c r="A56" s="8" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="15">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="110.25">
       <c r="A57" s="8" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D57" s="8"/>
-      <c r="E57" s="8">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" customFormat="1" ht="200" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E57" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" customFormat="1" ht="267.75">
       <c r="A58" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="5"/>
       <c r="E58" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" customFormat="1" ht="94.5">
       <c r="A59" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="5"/>
       <c r="E59" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" customFormat="1" ht="94.5">
       <c r="A60" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="5"/>
       <c r="E60" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" customFormat="1" ht="127" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" customFormat="1" ht="78.75">
       <c r="A61" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="5"/>
       <c r="E61" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" customFormat="1" ht="139" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" customFormat="1" ht="94.5">
       <c r="A62" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="5"/>
       <c r="E62" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" customFormat="1" ht="145" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" customFormat="1" ht="110.25">
       <c r="A63" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="5"/>
       <c r="E63" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" customFormat="1" ht="94.5">
       <c r="A64" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="5"/>
       <c r="E64" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" customFormat="1" ht="199" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" customFormat="1" ht="267.75">
       <c r="A65" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="5"/>
       <c r="E65" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" customFormat="1" ht="78.75">
       <c r="A66" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="5"/>
       <c r="E66" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" customFormat="1" ht="78.75">
       <c r="A67" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="5"/>
       <c r="E67" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" customFormat="1" ht="78.75">
       <c r="A68" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="5"/>
       <c r="E68" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" customFormat="1" ht="127" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" customFormat="1" ht="94.5">
       <c r="A69" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="5"/>
       <c r="E69" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" customFormat="1" ht="94.5">
       <c r="A70" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="5"/>
       <c r="E70" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/_site/Data/RemoteLearningModule.xlsx
+++ b/_site/Data/RemoteLearningModule.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhor8aMYsIEZRNdpYtYdzVHa4h08w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj64EhkiWJw1E37SIxdSp7gfV37tQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -159,11 +159,11 @@
   <si>
     <t xml:space="preserve">[Display this question if "Are there any pre-school/pre-k children in your household who are currently learning remotely?" = Yes]                                                                                           
 For child(ren) in Pre-school/Pre-K, is the...                                                 
-• [Display this question if "What type of device(s) does your child in Pre-school/Pre-K use for remote learning? Select all that apply:" = A tablet] ${R3.RL.021.a/ChoiceDescription/1} 
-• [Display this question if "What type of device(s) does your child in Pre-school/Pre-K  use for remote learning? Select all that apply:" = Smart phone] ${R3.RL.021.a/ChoiceDescription/2} 
-• [Display this question if "What type of device(s) does your child in Pre-school/Pre-K use for remote learning? Select all that apply:" = Laptop computer] ${R3.RL.021.a/ChoiceDescription/3} 
-• [Display this question if "What type of device(s) does your child in Pre-school/Pre-K use for remote learning? Select all that apply:" = Desktop computer]         ${R3.RL.021.a/ChoiceDescription/4} 
-• [Display this question if "What type of device(s) does your child in Pre-school/Pre-K use for remote learning? Select all that apply:" = Other, please specify] ${R3.RL.021.a/ChoiceDescription/5} </t>
+• [Display this question if "What type of device(s) does your child in Pre-school/Pre-K use for remote learning? Select all that apply:" = A tablet]
+• [Display this question if "What type of device(s) does your child in Pre-school/Pre-K  use for remote learning? Select all that apply:" = Smart phone]
+• [Display this question if "What type of device(s) does your child in Pre-school/Pre-K use for remote learning? Select all that apply:" = Laptop computer]
+• [Display this question if "What type of device(s) does your child in Pre-school/Pre-K use for remote learning? Select all that apply:" = Desktop computer]
+• [Display this question if "What type of device(s) does your child in Pre-school/Pre-K use for remote learning? Select all that apply:" = Other, please specify] </t>
   </si>
   <si>
     <t xml:space="preserve">• Provided by the children’s school or school district to use outside of school 
@@ -392,13 +392,13 @@
 What type of device(s) does your child in K-12 use for remote learning? Select all that apply:</t>
   </si>
   <si>
-    <t xml:space="preserve">[Display this question if "Are there any K-12 children in your household who are currently learning remotely?" = Yes]                                                                                           
+    <t>[Display this question if "Are there any K-12 children in your household who are currently learning remotely?" = Yes]                                                                                           
 For child(ren) in K-12, is the…                                                 
-• [Display this question if "What type of device(s) does your child in K-12 use for remote learning? Select all that apply: = A tablet] ${R3.RL.021.b/ChoiceDescription/1} 
-• [Display this question if "What type of device(s) does your child in K-12 use for remote learning? Select all that apply: = Smart phone] ${R3.RL.021.b/ChoiceDescription/2} 
-• [Display this question if "What type of device(s) does your child in K-12 use for remote learning? Select all that apply: = Laptop computer] ${R3.RL.021.b/ChoiceDescription/3} 
-• [Display this question if "What type of device(s) does your child in K-12 use for remote learning? Select all that apply: = Desktop computer]         ${R3.RL.021.b/ChoiceDescription/4} 
-• [Display this question if "What type of device(s) does your child in K-12 use for remote learning? Select all that apply: = Other, please specify] ${R3.RL.021.b/ChoiceDescription/5} </t>
+• [Display this question if "What type of device(s) does your child in K-12 use for remote learning? Select all that apply: = A tablet]
+• [Display this question if "What type of device(s) does your child in K-12 use for remote learning? Select all that apply: = Smart phone]
+• [Display this question if "What type of device(s) does your child in K-12 use for remote learning? Select all that apply: = Laptop computer]
+• [Display this question if "What type of device(s) does your child in K-12 use for remote learning? Select all that apply: = Desktop computer]
+• [Display this question if "What type of device(s) does your child in K-12 use for remote learning? Select all that apply: = Other, please specify]</t>
   </si>
   <si>
     <t>[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]           

--- a/_site/Data/RemoteLearningModule.xlsx
+++ b/_site/Data/RemoteLearningModule.xlsx
@@ -368,7 +368,7 @@
 Has anything changed recently in your remote learning arrangement for your preschool-aged child(ren)?</t>
   </si>
   <si>
-    <t>Open Ended</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t>RAPID Team Developed</t>
@@ -497,9 +497,6 @@
 If you could tell your school district superintendent or school board members about your child’s experiences with remote learning so far, what would you tell them?</t>
   </si>
   <si>
-    <t>Open ended</t>
-  </si>
-  <si>
     <t xml:space="preserve">[Display this question if "Are there any K-12 children in your household who are learning remotely?" = Yes]                     
 Has anything changed recently in your remote learning arrangement for your school-aged child/ren? </t>
   </si>
@@ -616,6 +613,9 @@
   <si>
     <t>[Display this question if "Which one did you choose for your Pre-school/Pre-K child(ren)?" In-person is displayed]                                     
 Why did you choose ${R3.RL.013.a/ChoiceGroup/SelectedChoices} for your child(ren) in Pre-school/Pre-K?</t>
+  </si>
+  <si>
+    <t>Open ended</t>
   </si>
   <si>
     <t>[Display this question if "Which of the following best describes your child(ren)? = Pre-school/Pre-K]                                                
@@ -1953,7 +1953,7 @@
       <c r="A29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -2635,8 +2635,8 @@
       <c r="A49" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>84</v>
+      <c r="B49" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -2667,9 +2667,9 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -2703,16 +2703,16 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="C51" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>8</v>
@@ -2741,16 +2741,16 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>8</v>
@@ -2779,16 +2779,16 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="C53" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>8</v>
@@ -2817,16 +2817,16 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>8</v>
@@ -2855,14 +2855,14 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>8</v>
@@ -2891,14 +2891,14 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>8</v>
@@ -2927,10 +2927,10 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>7</v>
@@ -2963,10 +2963,10 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="10"/>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>6</v>
@@ -3031,10 +3031,10 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="10"/>
@@ -3065,10 +3065,10 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="10"/>
@@ -3204,7 +3204,7 @@
         <v>115</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="10"/>
@@ -3306,7 +3306,7 @@
         <v>119</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="10"/>
